--- a/tests/sample.xlsx
+++ b/tests/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke.okada/GoogleDrive/projects/xlsxconverter/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke.okada/GoogleDrive/projects/xlsxconverter/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35120" yWindow="-360" windowWidth="19800" windowHeight="13580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="31760" yWindow="-3060" windowWidth="19800" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dummy1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="396">
   <si>
     <t>連番</t>
   </si>
@@ -1347,6 +1347,22 @@
   </si>
   <si>
     <t>AAA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセル型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1832,19 +1848,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:W17"/>
+  <dimension ref="A5:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1914,8 +1931,11 @@
       <c r="W5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1979,8 +1999,11 @@
       <c r="U6" s="2">
         <v>16256</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2047,8 +2070,11 @@
       <c r="V7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X7">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2115,8 +2141,11 @@
       <c r="V8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2184,7 +2213,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2251,8 +2280,11 @@
       <c r="V10" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -2319,8 +2351,11 @@
       <c r="V11" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -2384,8 +2419,11 @@
       <c r="U12" s="2">
         <v>62829</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -2452,8 +2490,11 @@
       <c r="V13" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="1">
+        <v>41925.058159722219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2520,8 +2561,11 @@
       <c r="V14" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2586,7 +2630,7 @@
         <v>33602</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -3887,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ZP1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="ZP1" zoomScale="75" workbookViewId="0">
       <selection activeCell="ZX12" sqref="ZX12"/>
     </sheetView>
   </sheetViews>

--- a/tests/sample.xlsx
+++ b/tests/sample.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="399">
   <si>
     <t>連番</t>
   </si>
@@ -1363,6 +1363,20 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かき"く"け
+こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ササ,,,,サ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あい,,,う
+えお</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1477,7 +1491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1485,6 +1499,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1848,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:X17"/>
+  <dimension ref="A5:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2761,6 +2781,71 @@
       </c>
       <c r="W17" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>77</v>
+      </c>
+      <c r="R18" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="2">
+        <v>53231</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sample.xlsx
+++ b/tests/sample.xlsx
@@ -1871,7 +1871,7 @@
   <dimension ref="A5:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/tests/sample.xlsx
+++ b/tests/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="-3060" windowWidth="19800" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="31120" yWindow="2620" windowWidth="30700" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dummy1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="400">
   <si>
     <t>連番</t>
   </si>
@@ -1379,13 +1379,21 @@
 えお</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>浮動小数</t>
+    <rPh sb="0" eb="4">
+      <t>フドウショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1491,7 +1499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1506,6 +1514,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1868,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:X18"/>
+  <dimension ref="A5:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1879,9 +1889,10 @@
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1954,8 +1965,11 @@
       <c r="X5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2022,8 +2036,11 @@
       <c r="X6">
         <v>1234</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2093,8 +2110,11 @@
       <c r="X7">
         <v>12.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y7" s="9">
+        <v>1.23456789123456E+17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2164,8 +2184,11 @@
       <c r="X8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -2232,8 +2255,11 @@
       <c r="V9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y9" s="8">
+        <v>8.0000000000000003E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2303,8 +2329,11 @@
       <c r="X10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y10" s="8">
+        <v>4.0000000000000002E-32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -2374,8 +2403,11 @@
       <c r="X11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y11" s="8">
+        <v>1.2345678899999999E+123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -2442,8 +2474,11 @@
       <c r="X12" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y12" s="9">
+        <v>1.50000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -2513,8 +2548,11 @@
       <c r="X13" s="1">
         <v>41925.058159722219</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2584,8 +2622,11 @@
       <c r="X14" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y14" s="9">
+        <v>0.123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2649,8 +2690,11 @@
       <c r="U15" s="2">
         <v>33602</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y15" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2714,8 +2758,11 @@
       <c r="U16" s="2">
         <v>53231</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="Y16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2782,8 +2829,11 @@
       <c r="W17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -2846,6 +2896,9 @@
       </c>
       <c r="U18" s="2">
         <v>53231</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
